--- a/Output/Example.xlsx
+++ b/Output/Example.xlsx
@@ -25,37 +25,37 @@
     <t>translate_line</t>
   </si>
   <si>
-    <t>¿Qué harías si te besara ahora mismo?</t>
-  </si>
-  <si>
-    <t>Für so einen kleinen Mann hast Du aber sehr grosse Nasenlöcher!</t>
-  </si>
-  <si>
-    <t>J'étais assise avec ma cigarette à la main et je me suis rendu compte que je préférerais t'avoir toi dans la main.</t>
-  </si>
-  <si>
-    <t>Quando ha visto mia suocera, il gatto si è arrampicato sull'albero e non ne è ancora sceso.</t>
-  </si>
-  <si>
-    <t>The toddler’s endless tantrum caused the entire plane anxiety.</t>
-  </si>
-  <si>
-    <t>AN NOMIZEIS OTI QA PLHRWSW GIA AUTA TOTE POU NA DEIS TI SE PERIMENEI META.</t>
-  </si>
-  <si>
-    <t>Als ik jou mijn telefoonnummer geef, zou je het houden of weggooien?</t>
-  </si>
-  <si>
-    <t>A cama do meu marido está cheia de areia preta. Porquê?</t>
-  </si>
-  <si>
-    <t>It took him a month to finish the meal.</t>
-  </si>
-  <si>
-    <t>¿El coche viajaba rápido?</t>
-  </si>
-  <si>
-    <t>Per favore, mi puo' pesare questo pacco?</t>
+    <t>¿Qué Harías Si Te Besara Ahora Mismo?</t>
+  </si>
+  <si>
+    <t>Für So Einen Kleinen Mann Hast Du Aber Sehr Grosse Nasenlöcher!</t>
+  </si>
+  <si>
+    <t>J'Étais Assise Avec Ma Cigarette À La Main Et Je Me Suis Rendu Compte Que Je Préférerais T'Avoir Toi Dans La Main.</t>
+  </si>
+  <si>
+    <t>Quando Ha Visto Mia Suocera, Il Gatto Si È Arrampicato Sull'Albero E Non Ne È Ancora Sceso.</t>
+  </si>
+  <si>
+    <t>The Toddler’S Endless Tantrum Caused The Entire Plane Anxiety.</t>
+  </si>
+  <si>
+    <t>An Nomizeis Oti Qa Plhrwsw Gia Auta Tote Pou Na Deis Ti Se Perimenei Meta.</t>
+  </si>
+  <si>
+    <t>Als Ik Jou Mijn Telefoonnummer Geef, Zou Je Het Houden Of Weggooien?</t>
+  </si>
+  <si>
+    <t>A Cama Do Meu Marido Está Cheia De Areia Preta. Porquê?</t>
+  </si>
+  <si>
+    <t>It Took Him A Month To Finish The Meal.</t>
+  </si>
+  <si>
+    <t>¿El Coche Viajaba Rápido?</t>
+  </si>
+  <si>
+    <t>Per Favore, Mi Puo' Pesare Questo Pacco?</t>
   </si>
   <si>
     <t>אני אוהב לאכול גלידה</t>
@@ -73,7 +73,7 @@
     <t>כשהוא ראה את חמותי, החתול טיפס על העץ ועדיין לא ירד.</t>
   </si>
   <si>
-    <t>התקף הזעם האינסופי של הפעוט גרם לכל המטוס לחרדה.</t>
+    <t>הזעם האינסופי של הפעוט גרם לחרדה בכל המטוס.</t>
   </si>
   <si>
     <t>אם הייתי נותן לך את מספר הטלפון שלי היית שומרת אותו או זורקת אותו?</t>
@@ -88,7 +88,7 @@
     <t>האם המכונית נסעה מהר?</t>
   </si>
   <si>
-    <t>אתה יכול בבקשה לשקול את החבילה הזו בשבילי?</t>
+    <t>בבקשה, אתה יכול לשקול את החבילה הזו בשבילי?</t>
   </si>
 </sst>
 </file>
